--- a/Code/Results/Cases/Case_0_241/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_241/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9473240390475419</v>
+        <v>1.033472160775461</v>
       </c>
       <c r="D2">
-        <v>0.9587649953003812</v>
+        <v>1.034309879571508</v>
       </c>
       <c r="E2">
-        <v>0.9648309496153642</v>
+        <v>1.041408002600597</v>
       </c>
       <c r="F2">
-        <v>0.9651079253601297</v>
+        <v>1.049445165721083</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9712031323956929</v>
+        <v>1.038596700309459</v>
       </c>
       <c r="K2">
-        <v>0.9708303448249599</v>
+        <v>1.037109722035751</v>
       </c>
       <c r="L2">
-        <v>0.9768030072809331</v>
+        <v>1.044187602891931</v>
       </c>
       <c r="M2">
-        <v>0.9770757589519248</v>
+        <v>1.052202204439152</v>
       </c>
       <c r="N2">
-        <v>0.9918621084326823</v>
+        <v>1.016435734895482</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.958032324524023</v>
+        <v>1.03544866148694</v>
       </c>
       <c r="D3">
-        <v>0.968159167823135</v>
+        <v>1.036092549598916</v>
       </c>
       <c r="E3">
-        <v>0.97435097859787</v>
+        <v>1.043218299993071</v>
       </c>
       <c r="F3">
-        <v>0.975573029805811</v>
+        <v>1.051456291892648</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.979736342614675</v>
+        <v>1.040210728735579</v>
       </c>
       <c r="K3">
-        <v>0.9792163482555225</v>
+        <v>1.038698961400054</v>
       </c>
       <c r="L3">
-        <v>0.9853229149731679</v>
+        <v>1.045805899371433</v>
       </c>
       <c r="M3">
-        <v>0.9865283028622103</v>
+        <v>1.054022485445754</v>
       </c>
       <c r="N3">
-        <v>0.9950201726756279</v>
+        <v>1.017006909062116</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9646722042433795</v>
+        <v>1.036723925923739</v>
       </c>
       <c r="D4">
-        <v>0.9739918730182333</v>
+        <v>1.03724276409273</v>
       </c>
       <c r="E4">
-        <v>0.9802623191384096</v>
+        <v>1.044386385570993</v>
       </c>
       <c r="F4">
-        <v>0.9820733826900208</v>
+        <v>1.052754473939849</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9850249025562962</v>
+        <v>1.041251318080538</v>
       </c>
       <c r="K4">
-        <v>0.9844146704125116</v>
+        <v>1.039723590024915</v>
       </c>
       <c r="L4">
-        <v>0.9906049461114558</v>
+        <v>1.046849325335708</v>
       </c>
       <c r="M4">
-        <v>0.9923930922168459</v>
+        <v>1.055196793833904</v>
       </c>
       <c r="N4">
-        <v>0.9969741646758039</v>
+        <v>1.017374263863754</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9674000857446632</v>
+        <v>1.037259193151547</v>
       </c>
       <c r="D5">
-        <v>0.976389780775033</v>
+        <v>1.037725545878715</v>
       </c>
       <c r="E5">
-        <v>0.9826926722780056</v>
+        <v>1.044876679306268</v>
       </c>
       <c r="F5">
-        <v>0.9847464794973154</v>
+        <v>1.053299497594486</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9871968480210483</v>
+        <v>1.041687892178773</v>
       </c>
       <c r="K5">
-        <v>0.9865497731808011</v>
+        <v>1.040153472794065</v>
       </c>
       <c r="L5">
-        <v>0.9927745969586711</v>
+        <v>1.047287109717779</v>
       </c>
       <c r="M5">
-        <v>0.994803234116006</v>
+        <v>1.055689647449765</v>
       </c>
       <c r="N5">
-        <v>0.9977757582737919</v>
+        <v>1.017528171583642</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9678545356951391</v>
+        <v>1.037349017469049</v>
       </c>
       <c r="D6">
-        <v>0.9767893500744699</v>
+        <v>1.03780656257878</v>
       </c>
       <c r="E6">
-        <v>0.9830976549091707</v>
+        <v>1.044958957242605</v>
       </c>
       <c r="F6">
-        <v>0.9851919475165577</v>
+        <v>1.05339096718027</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.9875586330586488</v>
+        <v>1.041761143266605</v>
       </c>
       <c r="K6">
-        <v>0.9869054334284079</v>
+        <v>1.040225601453059</v>
       </c>
       <c r="L6">
-        <v>0.9931360218641769</v>
+        <v>1.04736056505487</v>
       </c>
       <c r="M6">
-        <v>0.9952047868821733</v>
+        <v>1.055772351924051</v>
       </c>
       <c r="N6">
-        <v>0.9979092261580913</v>
+        <v>1.017553982574979</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9647088969671711</v>
+        <v>1.036731081514731</v>
       </c>
       <c r="D7">
-        <v>0.9740241210062556</v>
+        <v>1.03724921803903</v>
       </c>
       <c r="E7">
-        <v>0.9802950030003744</v>
+        <v>1.044392939896062</v>
       </c>
       <c r="F7">
-        <v>0.9821093286413438</v>
+        <v>1.052761759418988</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.9850541206126479</v>
+        <v>1.041257155075226</v>
       </c>
       <c r="K7">
-        <v>0.9844433920100494</v>
+        <v>1.039729337537441</v>
       </c>
       <c r="L7">
-        <v>0.9906341317959343</v>
+        <v>1.046855178432662</v>
       </c>
       <c r="M7">
-        <v>0.9924255084751462</v>
+        <v>1.055203382584191</v>
       </c>
       <c r="N7">
-        <v>0.9969849517495836</v>
+        <v>1.017376322453186</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9510064846277293</v>
+        <v>1.034140901044236</v>
       </c>
       <c r="D8">
-        <v>0.9619937699758846</v>
+        <v>1.034913034895387</v>
       </c>
       <c r="E8">
-        <v>0.968102875587337</v>
+        <v>1.042020496078487</v>
       </c>
       <c r="F8">
-        <v>0.9687042375367125</v>
+        <v>1.050125501164186</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.9741380622408479</v>
+        <v>1.039142965960823</v>
       </c>
       <c r="K8">
-        <v>0.9737144175608925</v>
+        <v>1.037647593373325</v>
       </c>
       <c r="L8">
-        <v>0.9797329799405723</v>
+        <v>1.044735295344061</v>
       </c>
       <c r="M8">
-        <v>0.9803255074735497</v>
+        <v>1.052818121420896</v>
       </c>
       <c r="N8">
-        <v>0.9929489245472873</v>
+        <v>1.016629232106545</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9243431122017185</v>
+        <v>1.029547567100441</v>
       </c>
       <c r="D9">
-        <v>0.938659534153939</v>
+        <v>1.030770274006141</v>
       </c>
       <c r="E9">
-        <v>0.944459033800089</v>
+        <v>1.037813782196747</v>
       </c>
       <c r="F9">
-        <v>0.9427230243187164</v>
+        <v>1.045454937167118</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.9528827099468926</v>
+        <v>1.035387577612422</v>
       </c>
       <c r="K9">
-        <v>0.9528329295982266</v>
+        <v>1.033950006735894</v>
       </c>
       <c r="L9">
-        <v>0.9585224432698398</v>
+        <v>1.040970454514</v>
       </c>
       <c r="M9">
-        <v>0.9568191712830842</v>
+        <v>1.048586977099161</v>
       </c>
       <c r="N9">
-        <v>0.9850686246942445</v>
+        <v>1.015295372722479</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9043484099473432</v>
+        <v>1.026464305950676</v>
       </c>
       <c r="D10">
-        <v>0.9212336689640889</v>
+        <v>1.027989623692738</v>
       </c>
       <c r="E10">
-        <v>0.926804993005755</v>
+        <v>1.034990439066692</v>
       </c>
       <c r="F10">
-        <v>0.9233283004150997</v>
+        <v>1.042322909519049</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.9369479432126744</v>
+        <v>1.032862672350952</v>
       </c>
       <c r="K10">
-        <v>0.9371872744798539</v>
+        <v>1.031464088675047</v>
       </c>
       <c r="L10">
-        <v>0.9426347564565156</v>
+        <v>1.038439648565404</v>
       </c>
       <c r="M10">
-        <v>0.9392351120140973</v>
+        <v>1.045746068158162</v>
       </c>
       <c r="N10">
-        <v>0.9791556328663678</v>
+        <v>1.014394034301038</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.8950054266303927</v>
+        <v>1.025123900402848</v>
       </c>
       <c r="D11">
-        <v>0.9131142569667491</v>
+        <v>1.026780828315564</v>
       </c>
       <c r="E11">
-        <v>0.918580042895935</v>
+        <v>1.033763139320059</v>
       </c>
       <c r="F11">
-        <v>0.9142917536440993</v>
+        <v>1.040962044892833</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.9295073411660987</v>
+        <v>1.031764036587679</v>
       </c>
       <c r="K11">
-        <v>0.9298844283315723</v>
+        <v>1.030382448758078</v>
       </c>
       <c r="L11">
-        <v>0.9352201207338223</v>
+        <v>1.037338555146756</v>
       </c>
       <c r="M11">
-        <v>0.9310337224672905</v>
+        <v>1.044510850272173</v>
       </c>
       <c r="N11">
-        <v>0.9763960268013859</v>
+        <v>1.014000783690352</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8914142279371645</v>
+        <v>1.024625184340371</v>
       </c>
       <c r="D12">
-        <v>0.909997508583257</v>
+        <v>1.026331089032654</v>
       </c>
       <c r="E12">
-        <v>0.9154229059150661</v>
+        <v>1.0333065236029</v>
       </c>
       <c r="F12">
-        <v>0.9108228062241114</v>
+        <v>1.040455829196425</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.9266486253057029</v>
+        <v>1.031355129511134</v>
       </c>
       <c r="K12">
-        <v>0.9270791241618933</v>
+        <v>1.029979872410066</v>
       </c>
       <c r="L12">
-        <v>0.9323720640021277</v>
+        <v>1.036928750016817</v>
       </c>
       <c r="M12">
-        <v>0.9278841357128638</v>
+        <v>1.044051245781937</v>
       </c>
       <c r="N12">
-        <v>0.9753362633093657</v>
+        <v>1.013854259460923</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.8921903568258623</v>
+        <v>1.024732198639214</v>
       </c>
       <c r="D13">
-        <v>0.9106709009091133</v>
+        <v>1.026427593465892</v>
       </c>
       <c r="E13">
-        <v>0.9161050187395333</v>
+        <v>1.033404503200311</v>
       </c>
       <c r="F13">
-        <v>0.911572303090787</v>
+        <v>1.04056444765997</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.9272663850128354</v>
+        <v>1.031442879170226</v>
       </c>
       <c r="K13">
-        <v>0.9276853186164372</v>
+        <v>1.030066263295587</v>
       </c>
       <c r="L13">
-        <v>0.9329874880031372</v>
+        <v>1.037016691637134</v>
       </c>
       <c r="M13">
-        <v>0.9285646869973199</v>
+        <v>1.044149868648449</v>
       </c>
       <c r="N13">
-        <v>0.9755652478347603</v>
+        <v>1.013885710053951</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8947111613091435</v>
+        <v>1.025082693470842</v>
       </c>
       <c r="D14">
-        <v>0.9128587806382551</v>
+        <v>1.026743667941063</v>
       </c>
       <c r="E14">
-        <v>0.9183212534174139</v>
+        <v>1.033725410602492</v>
       </c>
       <c r="F14">
-        <v>0.9140074120429953</v>
+        <v>1.040920215997153</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.9292730676029833</v>
+        <v>1.031730253163559</v>
       </c>
       <c r="K14">
-        <v>0.9296545216398961</v>
+        <v>1.030349188269273</v>
       </c>
       <c r="L14">
-        <v>0.9349867063669173</v>
+        <v>1.03730469718559</v>
       </c>
       <c r="M14">
-        <v>0.9307755828908116</v>
+        <v>1.044472875477544</v>
       </c>
       <c r="N14">
-        <v>0.9763091668409789</v>
+        <v>1.013988681248463</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.8962476919080201</v>
+        <v>1.025298534092967</v>
       </c>
       <c r="D15">
-        <v>0.9141929427663945</v>
+        <v>1.02693831321499</v>
       </c>
       <c r="E15">
-        <v>0.9196727226962907</v>
+        <v>1.033923033182023</v>
       </c>
       <c r="F15">
-        <v>0.915492308947971</v>
+        <v>1.04113931905347</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.9304964000735341</v>
+        <v>1.031907203763829</v>
       </c>
       <c r="K15">
-        <v>0.9308550711827669</v>
+        <v>1.030523400046155</v>
       </c>
       <c r="L15">
-        <v>0.9362055803967315</v>
+        <v>1.037482038878833</v>
       </c>
       <c r="M15">
-        <v>0.9321235969990475</v>
+        <v>1.044671785250238</v>
       </c>
       <c r="N15">
-        <v>0.9767627548059605</v>
+        <v>1.014052064873853</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9049526138270197</v>
+        <v>1.026553149464475</v>
       </c>
       <c r="D16">
-        <v>0.921759270099071</v>
+        <v>1.028069745193749</v>
       </c>
       <c r="E16">
-        <v>0.9273374424411601</v>
+        <v>1.035071788229111</v>
       </c>
       <c r="F16">
-        <v>0.9239132620478131</v>
+        <v>1.042413124769006</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.9374292653576936</v>
+        <v>1.032935470802504</v>
       </c>
       <c r="K16">
-        <v>0.9376597472132217</v>
+        <v>1.031535761621134</v>
       </c>
       <c r="L16">
-        <v>0.943114486744381</v>
+        <v>1.03851261219206</v>
       </c>
       <c r="M16">
-        <v>0.9397658409205641</v>
+        <v>1.045827936183996</v>
       </c>
       <c r="N16">
-        <v>0.9793341987336749</v>
+        <v>1.014420069899895</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9102182797661457</v>
+        <v>1.027338688704414</v>
       </c>
       <c r="D17">
-        <v>0.9263425444856751</v>
+        <v>1.02877817229284</v>
       </c>
       <c r="E17">
-        <v>0.9319805213477845</v>
+        <v>1.035791076527278</v>
       </c>
       <c r="F17">
-        <v>0.9290141728349791</v>
+        <v>1.043210878276291</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.9416246399427637</v>
+        <v>1.033579030843155</v>
       </c>
       <c r="K17">
-        <v>0.9417782996617025</v>
+        <v>1.032169375539015</v>
       </c>
       <c r="L17">
-        <v>0.9472964356289968</v>
+        <v>1.039157645108922</v>
       </c>
       <c r="M17">
-        <v>0.9443928996729475</v>
+        <v>1.046551779665146</v>
       </c>
       <c r="N17">
-        <v>0.9808908265824858</v>
+        <v>1.014650110295421</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.913224958155725</v>
+        <v>1.02779636782958</v>
       </c>
       <c r="D18">
-        <v>0.9289616707361226</v>
+        <v>1.029190928668442</v>
       </c>
       <c r="E18">
-        <v>0.9346338943345447</v>
+        <v>1.036210166335453</v>
       </c>
       <c r="F18">
-        <v>0.9319291388259966</v>
+        <v>1.043675745109476</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.9440206381600662</v>
+        <v>1.033953895354391</v>
       </c>
       <c r="K18">
-        <v>0.9441306733391812</v>
+        <v>1.032538449618426</v>
       </c>
       <c r="L18">
-        <v>0.9496851271723493</v>
+        <v>1.039533378106238</v>
       </c>
       <c r="M18">
-        <v>0.9470362930512956</v>
+        <v>1.04697349637915</v>
       </c>
       <c r="N18">
-        <v>0.9817799346676667</v>
+        <v>1.014784003418759</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9142396565115933</v>
+        <v>1.027952338491098</v>
       </c>
       <c r="D19">
-        <v>0.9298459155182277</v>
+        <v>1.029331591116166</v>
       </c>
       <c r="E19">
-        <v>0.9355297131044882</v>
+        <v>1.036352988039169</v>
       </c>
       <c r="F19">
-        <v>0.9329132727493458</v>
+        <v>1.043834177304363</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.9448293082595054</v>
+        <v>1.034081628122467</v>
       </c>
       <c r="K19">
-        <v>0.9449246601959668</v>
+        <v>1.032664209843082</v>
       </c>
       <c r="L19">
-        <v>0.9504913902647741</v>
+        <v>1.039661408591046</v>
       </c>
       <c r="M19">
-        <v>0.9479286061370507</v>
+        <v>1.047117208714369</v>
       </c>
       <c r="N19">
-        <v>0.9820800278113545</v>
+        <v>1.014829609319113</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9096601303080344</v>
+        <v>1.027254461006635</v>
       </c>
       <c r="D20">
-        <v>0.9258565049350055</v>
+        <v>1.028702212232167</v>
       </c>
       <c r="E20">
-        <v>0.931488132277043</v>
+        <v>1.035713951343409</v>
       </c>
       <c r="F20">
-        <v>0.9284732373266451</v>
+        <v>1.04312533354489</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.941179888998751</v>
+        <v>1.033510036188973</v>
       </c>
       <c r="K20">
-        <v>0.9413416662169254</v>
+        <v>1.032101446870572</v>
       </c>
       <c r="L20">
-        <v>0.9468530697925407</v>
+        <v>1.039088491457178</v>
       </c>
       <c r="M20">
-        <v>0.9439022963160749</v>
+        <v>1.046474168867376</v>
       </c>
       <c r="N20">
-        <v>0.9807257954233157</v>
+        <v>1.014625458730945</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.8939723487510508</v>
+        <v>1.024979504615253</v>
       </c>
       <c r="D21">
-        <v>0.9122174244825133</v>
+        <v>1.026650612479895</v>
       </c>
       <c r="E21">
-        <v>0.9176715818292773</v>
+        <v>1.033630932052991</v>
       </c>
       <c r="F21">
-        <v>0.9132935885681449</v>
+        <v>1.040815471462717</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.9286848983747186</v>
+        <v>1.031645651643395</v>
       </c>
       <c r="K21">
-        <v>0.9290773239561422</v>
+        <v>1.030265896380903</v>
       </c>
       <c r="L21">
-        <v>0.9344007054997785</v>
+        <v>1.037219909277213</v>
       </c>
       <c r="M21">
-        <v>0.9301275183998147</v>
+        <v>1.04437778001982</v>
       </c>
       <c r="N21">
-        <v>0.9760911043699239</v>
+        <v>1.013958371379994</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.8833972829495386</v>
+        <v>1.023544334081194</v>
       </c>
       <c r="D22">
-        <v>0.9030482907042041</v>
+        <v>1.025356403140518</v>
       </c>
       <c r="E22">
-        <v>0.9083838757021669</v>
+        <v>1.032316949953445</v>
       </c>
       <c r="F22">
-        <v>0.9030878046054227</v>
+        <v>1.039358932156491</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.9202698249814673</v>
+        <v>1.03046865504786</v>
       </c>
       <c r="K22">
-        <v>0.9208205002186173</v>
+        <v>1.029107131678038</v>
       </c>
       <c r="L22">
-        <v>0.9260184299381879</v>
+        <v>1.036040359360394</v>
       </c>
       <c r="M22">
-        <v>0.9208589865822071</v>
+        <v>1.043055116037393</v>
       </c>
       <c r="N22">
-        <v>0.972972830456133</v>
+        <v>1.013536319569406</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.8890780548704865</v>
+        <v>1.024305611183444</v>
       </c>
       <c r="D23">
-        <v>0.9079712425120313</v>
+        <v>1.026042902609285</v>
       </c>
       <c r="E23">
-        <v>0.9133704182945448</v>
+        <v>1.033013933171654</v>
       </c>
       <c r="F23">
-        <v>0.9085675009303641</v>
+        <v>1.040131482123312</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.9247893752215816</v>
+        <v>1.031093064547597</v>
       </c>
       <c r="K23">
-        <v>0.9252547591947895</v>
+        <v>1.029721866172883</v>
       </c>
       <c r="L23">
-        <v>0.9305199514300353</v>
+        <v>1.036666114214743</v>
       </c>
       <c r="M23">
-        <v>0.9258361156323117</v>
+        <v>1.043756728090608</v>
       </c>
       <c r="N23">
-        <v>0.9746471929729139</v>
+        <v>1.013760308969049</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9099125326493458</v>
+        <v>1.02729252146082</v>
       </c>
       <c r="D24">
-        <v>0.9260762917774206</v>
+        <v>1.028736536725845</v>
       </c>
       <c r="E24">
-        <v>0.9317107901476321</v>
+        <v>1.035748802311413</v>
       </c>
       <c r="F24">
-        <v>0.9287178479725087</v>
+        <v>1.043163988914261</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.9413810096990092</v>
+        <v>1.033541213488347</v>
       </c>
       <c r="K24">
-        <v>0.9415391153340125</v>
+        <v>1.032132142462993</v>
       </c>
       <c r="L24">
-        <v>0.9470535630147886</v>
+        <v>1.03911974057173</v>
       </c>
       <c r="M24">
-        <v>0.9441241492490747</v>
+        <v>1.046509239356227</v>
       </c>
       <c r="N24">
-        <v>0.9808004237928</v>
+        <v>1.01463659859396</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9315824796214986</v>
+        <v>1.030738653274015</v>
       </c>
       <c r="D25">
-        <v>0.944984583100356</v>
+        <v>1.031844499223361</v>
       </c>
       <c r="E25">
-        <v>0.9508675130893687</v>
+        <v>1.038904549512156</v>
       </c>
       <c r="F25">
-        <v>0.9497638171753752</v>
+        <v>1.04666551374267</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.9586541190998461</v>
+        <v>1.036362103250245</v>
       </c>
       <c r="K25">
-        <v>0.9585015310576275</v>
+        <v>1.034909511630666</v>
       </c>
       <c r="L25">
-        <v>0.9642796473022069</v>
+        <v>1.041947353936669</v>
       </c>
       <c r="M25">
-        <v>0.9631954871123</v>
+        <v>1.049684282814681</v>
       </c>
       <c r="N25">
-        <v>0.9872099530351586</v>
+        <v>1.015642309702364</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_241/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_241/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.033472160775461</v>
+        <v>0.9473240390475418</v>
       </c>
       <c r="D2">
-        <v>1.034309879571508</v>
+        <v>0.9587649953003812</v>
       </c>
       <c r="E2">
-        <v>1.041408002600597</v>
+        <v>0.9648309496153644</v>
       </c>
       <c r="F2">
-        <v>1.049445165721083</v>
+        <v>0.96510792536013</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1.038596700309459</v>
+        <v>0.971203132395693</v>
       </c>
       <c r="K2">
-        <v>1.037109722035751</v>
+        <v>0.9708303448249598</v>
       </c>
       <c r="L2">
-        <v>1.044187602891931</v>
+        <v>0.9768030072809334</v>
       </c>
       <c r="M2">
-        <v>1.052202204439152</v>
+        <v>0.9770757589519249</v>
       </c>
       <c r="N2">
-        <v>1.016435734895482</v>
+        <v>0.9918621084326822</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.03544866148694</v>
+        <v>0.9580323245240215</v>
       </c>
       <c r="D3">
-        <v>1.036092549598916</v>
+        <v>0.9681591678231336</v>
       </c>
       <c r="E3">
-        <v>1.043218299993071</v>
+        <v>0.9743509785978688</v>
       </c>
       <c r="F3">
-        <v>1.051456291892648</v>
+        <v>0.9755730298058094</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1.040210728735579</v>
+        <v>0.9797363426146737</v>
       </c>
       <c r="K3">
-        <v>1.038698961400054</v>
+        <v>0.9792163482555212</v>
       </c>
       <c r="L3">
-        <v>1.045805899371433</v>
+        <v>0.9853229149731665</v>
       </c>
       <c r="M3">
-        <v>1.054022485445754</v>
+        <v>0.9865283028622087</v>
       </c>
       <c r="N3">
-        <v>1.017006909062116</v>
+        <v>0.9950201726756275</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.036723925923739</v>
+        <v>0.9646722042433783</v>
       </c>
       <c r="D4">
-        <v>1.03724276409273</v>
+        <v>0.9739918730182318</v>
       </c>
       <c r="E4">
-        <v>1.044386385570993</v>
+        <v>0.980262319138408</v>
       </c>
       <c r="F4">
-        <v>1.052754473939849</v>
+        <v>0.9820733826900192</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.041251318080538</v>
+        <v>0.985024902556295</v>
       </c>
       <c r="K4">
-        <v>1.039723590024915</v>
+        <v>0.9844146704125104</v>
       </c>
       <c r="L4">
-        <v>1.046849325335708</v>
+        <v>0.9906049461114546</v>
       </c>
       <c r="M4">
-        <v>1.055196793833904</v>
+        <v>0.9923930922168444</v>
       </c>
       <c r="N4">
-        <v>1.017374263863754</v>
+        <v>0.9969741646758035</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.037259193151547</v>
+        <v>0.9674000857446629</v>
       </c>
       <c r="D5">
-        <v>1.037725545878715</v>
+        <v>0.9763897807750327</v>
       </c>
       <c r="E5">
-        <v>1.044876679306268</v>
+        <v>0.9826926722780051</v>
       </c>
       <c r="F5">
-        <v>1.053299497594486</v>
+        <v>0.9847464794973149</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.041687892178773</v>
+        <v>0.987196848021048</v>
       </c>
       <c r="K5">
-        <v>1.040153472794065</v>
+        <v>0.9865497731808007</v>
       </c>
       <c r="L5">
-        <v>1.047287109717779</v>
+        <v>0.9927745969586705</v>
       </c>
       <c r="M5">
-        <v>1.055689647449765</v>
+        <v>0.9948032341160052</v>
       </c>
       <c r="N5">
-        <v>1.017528171583642</v>
+        <v>0.9977757582737918</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.037349017469049</v>
+        <v>0.967854535695139</v>
       </c>
       <c r="D6">
-        <v>1.03780656257878</v>
+        <v>0.9767893500744697</v>
       </c>
       <c r="E6">
-        <v>1.044958957242605</v>
+        <v>0.9830976549091706</v>
       </c>
       <c r="F6">
-        <v>1.05339096718027</v>
+        <v>0.9851919475165579</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.041761143266605</v>
+        <v>0.9875586330586487</v>
       </c>
       <c r="K6">
-        <v>1.040225601453059</v>
+        <v>0.9869054334284079</v>
       </c>
       <c r="L6">
-        <v>1.04736056505487</v>
+        <v>0.9931360218641769</v>
       </c>
       <c r="M6">
-        <v>1.055772351924051</v>
+        <v>0.9952047868821735</v>
       </c>
       <c r="N6">
-        <v>1.017553982574979</v>
+        <v>0.9979092261580913</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.036731081514731</v>
+        <v>0.9647088969671709</v>
       </c>
       <c r="D7">
-        <v>1.03724921803903</v>
+        <v>0.9740241210062556</v>
       </c>
       <c r="E7">
-        <v>1.044392939896062</v>
+        <v>0.9802950030003742</v>
       </c>
       <c r="F7">
-        <v>1.052761759418988</v>
+        <v>0.9821093286413437</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.041257155075226</v>
+        <v>0.9850541206126477</v>
       </c>
       <c r="K7">
-        <v>1.039729337537441</v>
+        <v>0.9844433920100492</v>
       </c>
       <c r="L7">
-        <v>1.046855178432662</v>
+        <v>0.9906341317959342</v>
       </c>
       <c r="M7">
-        <v>1.055203382584191</v>
+        <v>0.9924255084751461</v>
       </c>
       <c r="N7">
-        <v>1.017376322453186</v>
+        <v>0.9969849517495835</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.034140901044236</v>
+        <v>0.9510064846277317</v>
       </c>
       <c r="D8">
-        <v>1.034913034895387</v>
+        <v>0.9619937699758869</v>
       </c>
       <c r="E8">
-        <v>1.042020496078487</v>
+        <v>0.968102875587339</v>
       </c>
       <c r="F8">
-        <v>1.050125501164186</v>
+        <v>0.9687042375367144</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1.039142965960823</v>
+        <v>0.9741380622408502</v>
       </c>
       <c r="K8">
-        <v>1.037647593373325</v>
+        <v>0.9737144175608946</v>
       </c>
       <c r="L8">
-        <v>1.044735295344061</v>
+        <v>0.9797329799405744</v>
       </c>
       <c r="M8">
-        <v>1.052818121420896</v>
+        <v>0.9803255074735517</v>
       </c>
       <c r="N8">
-        <v>1.016629232106545</v>
+        <v>0.9929489245472881</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.029547567100441</v>
+        <v>0.9243431122017205</v>
       </c>
       <c r="D9">
-        <v>1.030770274006141</v>
+        <v>0.938659534153941</v>
       </c>
       <c r="E9">
-        <v>1.037813782196747</v>
+        <v>0.9444590338000906</v>
       </c>
       <c r="F9">
-        <v>1.045454937167118</v>
+        <v>0.9427230243187179</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1.035387577612422</v>
+        <v>0.9528827099468944</v>
       </c>
       <c r="K9">
-        <v>1.033950006735894</v>
+        <v>0.9528329295982285</v>
       </c>
       <c r="L9">
-        <v>1.040970454514</v>
+        <v>0.9585224432698416</v>
       </c>
       <c r="M9">
-        <v>1.048586977099161</v>
+        <v>0.9568191712830861</v>
       </c>
       <c r="N9">
-        <v>1.015295372722479</v>
+        <v>0.9850686246942451</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.026464305950676</v>
+        <v>0.9043484099473454</v>
       </c>
       <c r="D10">
-        <v>1.027989623692738</v>
+        <v>0.9212336689640909</v>
       </c>
       <c r="E10">
-        <v>1.034990439066692</v>
+        <v>0.9268049930057569</v>
       </c>
       <c r="F10">
-        <v>1.042322909519049</v>
+        <v>0.9233283004151017</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>1.032862672350952</v>
+        <v>0.9369479432126766</v>
       </c>
       <c r="K10">
-        <v>1.031464088675047</v>
+        <v>0.9371872744798556</v>
       </c>
       <c r="L10">
-        <v>1.038439648565404</v>
+        <v>0.9426347564565176</v>
       </c>
       <c r="M10">
-        <v>1.045746068158162</v>
+        <v>0.9392351120140995</v>
       </c>
       <c r="N10">
-        <v>1.014394034301038</v>
+        <v>0.9791556328663683</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.025123900402848</v>
+        <v>0.895005426630393</v>
       </c>
       <c r="D11">
-        <v>1.026780828315564</v>
+        <v>0.9131142569667491</v>
       </c>
       <c r="E11">
-        <v>1.033763139320059</v>
+        <v>0.918580042895935</v>
       </c>
       <c r="F11">
-        <v>1.040962044892833</v>
+        <v>0.9142917536440992</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1.031764036587679</v>
+        <v>0.9295073411660986</v>
       </c>
       <c r="K11">
-        <v>1.030382448758078</v>
+        <v>0.9298844283315723</v>
       </c>
       <c r="L11">
-        <v>1.037338555146756</v>
+        <v>0.935220120733822</v>
       </c>
       <c r="M11">
-        <v>1.044510850272173</v>
+        <v>0.9310337224672903</v>
       </c>
       <c r="N11">
-        <v>1.014000783690352</v>
+        <v>0.9763960268013857</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.024625184340371</v>
+        <v>0.8914142279371656</v>
       </c>
       <c r="D12">
-        <v>1.026331089032654</v>
+        <v>0.9099975085832579</v>
       </c>
       <c r="E12">
-        <v>1.0333065236029</v>
+        <v>0.9154229059150669</v>
       </c>
       <c r="F12">
-        <v>1.040455829196425</v>
+        <v>0.9108228062241123</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>1.031355129511134</v>
+        <v>0.9266486253057037</v>
       </c>
       <c r="K12">
-        <v>1.029979872410066</v>
+        <v>0.9270791241618943</v>
       </c>
       <c r="L12">
-        <v>1.036928750016817</v>
+        <v>0.9323720640021286</v>
       </c>
       <c r="M12">
-        <v>1.044051245781937</v>
+        <v>0.9278841357128649</v>
       </c>
       <c r="N12">
-        <v>1.013854259460923</v>
+        <v>0.9753362633093661</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.024732198639214</v>
+        <v>0.8921903568258654</v>
       </c>
       <c r="D13">
-        <v>1.026427593465892</v>
+        <v>0.9106709009091162</v>
       </c>
       <c r="E13">
-        <v>1.033404503200311</v>
+        <v>0.9161050187395364</v>
       </c>
       <c r="F13">
-        <v>1.04056444765997</v>
+        <v>0.9115723030907904</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>1.031442879170226</v>
+        <v>0.9272663850128383</v>
       </c>
       <c r="K13">
-        <v>1.030066263295587</v>
+        <v>0.9276853186164401</v>
       </c>
       <c r="L13">
-        <v>1.037016691637134</v>
+        <v>0.9329874880031399</v>
       </c>
       <c r="M13">
-        <v>1.044149868648449</v>
+        <v>0.928564686997323</v>
       </c>
       <c r="N13">
-        <v>1.013885710053951</v>
+        <v>0.9755652478347612</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.025082693470842</v>
+        <v>0.8947111613091424</v>
       </c>
       <c r="D14">
-        <v>1.026743667941063</v>
+        <v>0.9128587806382543</v>
       </c>
       <c r="E14">
-        <v>1.033725410602492</v>
+        <v>0.9183212534174131</v>
       </c>
       <c r="F14">
-        <v>1.040920215997153</v>
+        <v>0.9140074120429945</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>1.031730253163559</v>
+        <v>0.9292730676029823</v>
       </c>
       <c r="K14">
-        <v>1.030349188269273</v>
+        <v>0.929654521639895</v>
       </c>
       <c r="L14">
-        <v>1.03730469718559</v>
+        <v>0.9349867063669164</v>
       </c>
       <c r="M14">
-        <v>1.044472875477544</v>
+        <v>0.9307755828908107</v>
       </c>
       <c r="N14">
-        <v>1.013988681248463</v>
+        <v>0.9763091668409787</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.025298534092967</v>
+        <v>0.8962476919080212</v>
       </c>
       <c r="D15">
-        <v>1.02693831321499</v>
+        <v>0.9141929427663958</v>
       </c>
       <c r="E15">
-        <v>1.033923033182023</v>
+        <v>0.9196727226962919</v>
       </c>
       <c r="F15">
-        <v>1.04113931905347</v>
+        <v>0.9154923089479722</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1.031907203763829</v>
+        <v>0.9304964000735352</v>
       </c>
       <c r="K15">
-        <v>1.030523400046155</v>
+        <v>0.9308550711827681</v>
       </c>
       <c r="L15">
-        <v>1.037482038878833</v>
+        <v>0.9362055803967326</v>
       </c>
       <c r="M15">
-        <v>1.044671785250238</v>
+        <v>0.9321235969990485</v>
       </c>
       <c r="N15">
-        <v>1.014052064873853</v>
+        <v>0.976762754805961</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.026553149464475</v>
+        <v>0.9049526138270203</v>
       </c>
       <c r="D16">
-        <v>1.028069745193749</v>
+        <v>0.9217592700990713</v>
       </c>
       <c r="E16">
-        <v>1.035071788229111</v>
+        <v>0.9273374424411608</v>
       </c>
       <c r="F16">
-        <v>1.042413124769006</v>
+        <v>0.9239132620478133</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>1.032935470802504</v>
+        <v>0.9374292653576941</v>
       </c>
       <c r="K16">
-        <v>1.031535761621134</v>
+        <v>0.9376597472132221</v>
       </c>
       <c r="L16">
-        <v>1.03851261219206</v>
+        <v>0.9431144867443817</v>
       </c>
       <c r="M16">
-        <v>1.045827936183996</v>
+        <v>0.9397658409205646</v>
       </c>
       <c r="N16">
-        <v>1.014420069899895</v>
+        <v>0.9793341987336752</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.027338688704414</v>
+        <v>0.910218279766147</v>
       </c>
       <c r="D17">
-        <v>1.02877817229284</v>
+        <v>0.9263425444856764</v>
       </c>
       <c r="E17">
-        <v>1.035791076527278</v>
+        <v>0.9319805213477858</v>
       </c>
       <c r="F17">
-        <v>1.043210878276291</v>
+        <v>0.9290141728349804</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>1.033579030843155</v>
+        <v>0.941624639942765</v>
       </c>
       <c r="K17">
-        <v>1.032169375539015</v>
+        <v>0.9417782996617035</v>
       </c>
       <c r="L17">
-        <v>1.039157645108922</v>
+        <v>0.947296435628998</v>
       </c>
       <c r="M17">
-        <v>1.046551779665146</v>
+        <v>0.944392899672949</v>
       </c>
       <c r="N17">
-        <v>1.014650110295421</v>
+        <v>0.9808908265824864</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.02779636782958</v>
+        <v>0.9132249581557237</v>
       </c>
       <c r="D18">
-        <v>1.029190928668442</v>
+        <v>0.9289616707361212</v>
       </c>
       <c r="E18">
-        <v>1.036210166335453</v>
+        <v>0.934633894334543</v>
       </c>
       <c r="F18">
-        <v>1.043675745109476</v>
+        <v>0.9319291388259952</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1.033953895354391</v>
+        <v>0.944020638160065</v>
       </c>
       <c r="K18">
-        <v>1.032538449618426</v>
+        <v>0.9441306733391799</v>
       </c>
       <c r="L18">
-        <v>1.039533378106238</v>
+        <v>0.9496851271723479</v>
       </c>
       <c r="M18">
-        <v>1.04697349637915</v>
+        <v>0.9470362930512941</v>
       </c>
       <c r="N18">
-        <v>1.014784003418759</v>
+        <v>0.9817799346676662</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.027952338491098</v>
+        <v>0.9142396565115911</v>
       </c>
       <c r="D19">
-        <v>1.029331591116166</v>
+        <v>0.9298459155182255</v>
       </c>
       <c r="E19">
-        <v>1.036352988039169</v>
+        <v>0.9355297131044857</v>
       </c>
       <c r="F19">
-        <v>1.043834177304363</v>
+        <v>0.9329132727493435</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1.034081628122467</v>
+        <v>0.9448293082595031</v>
       </c>
       <c r="K19">
-        <v>1.032664209843082</v>
+        <v>0.9449246601959645</v>
       </c>
       <c r="L19">
-        <v>1.039661408591046</v>
+        <v>0.950491390264772</v>
       </c>
       <c r="M19">
-        <v>1.047117208714369</v>
+        <v>0.9479286061370484</v>
       </c>
       <c r="N19">
-        <v>1.014829609319113</v>
+        <v>0.9820800278113536</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.027254461006635</v>
+        <v>0.9096601303080344</v>
       </c>
       <c r="D20">
-        <v>1.028702212232167</v>
+        <v>0.9258565049350055</v>
       </c>
       <c r="E20">
-        <v>1.035713951343409</v>
+        <v>0.9314881322770434</v>
       </c>
       <c r="F20">
-        <v>1.04312533354489</v>
+        <v>0.9284732373266454</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>1.033510036188973</v>
+        <v>0.9411798889987513</v>
       </c>
       <c r="K20">
-        <v>1.032101446870572</v>
+        <v>0.9413416662169253</v>
       </c>
       <c r="L20">
-        <v>1.039088491457178</v>
+        <v>0.946853069792541</v>
       </c>
       <c r="M20">
-        <v>1.046474168867376</v>
+        <v>0.943902296316075</v>
       </c>
       <c r="N20">
-        <v>1.014625458730945</v>
+        <v>0.9807257954233158</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.024979504615253</v>
+        <v>0.8939723487510518</v>
       </c>
       <c r="D21">
-        <v>1.026650612479895</v>
+        <v>0.9122174244825141</v>
       </c>
       <c r="E21">
-        <v>1.033630932052991</v>
+        <v>0.9176715818292782</v>
       </c>
       <c r="F21">
-        <v>1.040815471462717</v>
+        <v>0.9132935885681457</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>1.031645651643395</v>
+        <v>0.9286848983747196</v>
       </c>
       <c r="K21">
-        <v>1.030265896380903</v>
+        <v>0.9290773239561427</v>
       </c>
       <c r="L21">
-        <v>1.037219909277213</v>
+        <v>0.9344007054997795</v>
       </c>
       <c r="M21">
-        <v>1.04437778001982</v>
+        <v>0.9301275183998156</v>
       </c>
       <c r="N21">
-        <v>1.013958371379994</v>
+        <v>0.9760911043699241</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.023544334081194</v>
+        <v>0.8833972829495372</v>
       </c>
       <c r="D22">
-        <v>1.025356403140518</v>
+        <v>0.9030482907042031</v>
       </c>
       <c r="E22">
-        <v>1.032316949953445</v>
+        <v>0.9083838757021657</v>
       </c>
       <c r="F22">
-        <v>1.039358932156491</v>
+        <v>0.9030878046054215</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>1.03046865504786</v>
+        <v>0.9202698249814663</v>
       </c>
       <c r="K22">
-        <v>1.029107131678038</v>
+        <v>0.9208205002186163</v>
       </c>
       <c r="L22">
-        <v>1.036040359360394</v>
+        <v>0.9260184299381863</v>
       </c>
       <c r="M22">
-        <v>1.043055116037393</v>
+        <v>0.9208589865822058</v>
       </c>
       <c r="N22">
-        <v>1.013536319569406</v>
+        <v>0.9729728304561327</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.024305611183444</v>
+        <v>0.8890780548704859</v>
       </c>
       <c r="D23">
-        <v>1.026042902609285</v>
+        <v>0.907971242512031</v>
       </c>
       <c r="E23">
-        <v>1.033013933171654</v>
+        <v>0.9133704182945444</v>
       </c>
       <c r="F23">
-        <v>1.040131482123312</v>
+        <v>0.9085675009303638</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>1.031093064547597</v>
+        <v>0.924789375221581</v>
       </c>
       <c r="K23">
-        <v>1.029721866172883</v>
+        <v>0.9252547591947892</v>
       </c>
       <c r="L23">
-        <v>1.036666114214743</v>
+        <v>0.9305199514300351</v>
       </c>
       <c r="M23">
-        <v>1.043756728090608</v>
+        <v>0.9258361156323115</v>
       </c>
       <c r="N23">
-        <v>1.013760308969049</v>
+        <v>0.9746471929729137</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.02729252146082</v>
+        <v>0.9099125326493468</v>
       </c>
       <c r="D24">
-        <v>1.028736536725845</v>
+        <v>0.9260762917774217</v>
       </c>
       <c r="E24">
-        <v>1.035748802311413</v>
+        <v>0.9317107901476329</v>
       </c>
       <c r="F24">
-        <v>1.043163988914261</v>
+        <v>0.9287178479725096</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>1.033541213488347</v>
+        <v>0.9413810096990103</v>
       </c>
       <c r="K24">
-        <v>1.032132142462993</v>
+        <v>0.9415391153340134</v>
       </c>
       <c r="L24">
-        <v>1.03911974057173</v>
+        <v>0.9470535630147895</v>
       </c>
       <c r="M24">
-        <v>1.046509239356227</v>
+        <v>0.9441241492490757</v>
       </c>
       <c r="N24">
-        <v>1.01463659859396</v>
+        <v>0.9808004237928003</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.030738653274015</v>
+        <v>0.9315824796214995</v>
       </c>
       <c r="D25">
-        <v>1.031844499223361</v>
+        <v>0.9449845831003572</v>
       </c>
       <c r="E25">
-        <v>1.038904549512156</v>
+        <v>0.9508675130893696</v>
       </c>
       <c r="F25">
-        <v>1.04666551374267</v>
+        <v>0.9497638171753761</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>1.036362103250245</v>
+        <v>0.9586541190998469</v>
       </c>
       <c r="K25">
-        <v>1.034909511630666</v>
+        <v>0.9585015310576285</v>
       </c>
       <c r="L25">
-        <v>1.041947353936669</v>
+        <v>0.9642796473022078</v>
       </c>
       <c r="M25">
-        <v>1.049684282814681</v>
+        <v>0.9631954871123009</v>
       </c>
       <c r="N25">
-        <v>1.015642309702364</v>
+        <v>0.987209953035159</v>
       </c>
     </row>
   </sheetData>
